--- a/000.커리큐럼/주단위상세일정엑셀/실시시험일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/실시시험일정.xlsx
@@ -159,7 +159,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -285,13 +285,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -304,12 +334,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -319,9 +343,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -343,7 +364,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -631,7 +664,7 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -644,13 +677,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -670,87 +703,87 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="17">
-        <v>44630</v>
+      <c r="E3" s="16">
+        <v>44623</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="17">
         <v>44642</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="9">
-        <v>44652</v>
+      <c r="E5" s="17">
+        <v>44649</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="9">
-        <v>44662</v>
+      <c r="E6" s="17">
+        <v>44663</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="18">
         <v>44671</v>
       </c>
     </row>
